--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.87751133333333</v>
+        <v>6.677397333333334</v>
       </c>
       <c r="H2">
-        <v>41.632534</v>
+        <v>20.032192</v>
       </c>
       <c r="I2">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="J2">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.275702333333334</v>
+        <v>7.616606666666667</v>
       </c>
       <c r="N2">
-        <v>18.827107</v>
+        <v>22.84982</v>
       </c>
       <c r="O2">
-        <v>0.2560867246427467</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="P2">
-        <v>0.2560867246427466</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="Q2">
-        <v>87.09113025545979</v>
+        <v>50.8591090450489</v>
       </c>
       <c r="R2">
-        <v>783.8201722991381</v>
+        <v>457.7319814054401</v>
       </c>
       <c r="S2">
-        <v>0.009935403046405413</v>
+        <v>0.005614040349569813</v>
       </c>
       <c r="T2">
-        <v>0.009935403046405411</v>
+        <v>0.005614040349569814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.87751133333333</v>
+        <v>6.677397333333334</v>
       </c>
       <c r="H3">
-        <v>41.632534</v>
+        <v>20.032192</v>
       </c>
       <c r="I3">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="J3">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.774899</v>
       </c>
       <c r="O3">
-        <v>0.418600854933333</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="P3">
-        <v>0.4186008549333329</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="Q3">
-        <v>142.3596698848962</v>
+        <v>68.49874283873424</v>
       </c>
       <c r="R3">
-        <v>1281.237028964066</v>
+        <v>616.488685548608</v>
       </c>
       <c r="S3">
-        <v>0.01624046781470031</v>
+        <v>0.007561176619331605</v>
       </c>
       <c r="T3">
-        <v>0.0162404678147003</v>
+        <v>0.007561176619331605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.87751133333333</v>
+        <v>6.677397333333334</v>
       </c>
       <c r="H4">
-        <v>41.632534</v>
+        <v>20.032192</v>
       </c>
       <c r="I4">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="J4">
-        <v>0.03879702495420557</v>
+        <v>0.01905132696318048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.916475</v>
       </c>
       <c r="O4">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828338</v>
       </c>
       <c r="P4">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828339</v>
       </c>
       <c r="Q4">
-        <v>110.6337176219611</v>
+        <v>53.23326879591112</v>
       </c>
       <c r="R4">
-        <v>995.70345859765</v>
+        <v>479.0994191632</v>
       </c>
       <c r="S4">
-        <v>0.01262115409309985</v>
+        <v>0.005876109994279065</v>
       </c>
       <c r="T4">
-        <v>0.01262115409309985</v>
+        <v>0.005876109994279066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>934.2459719999999</v>
       </c>
       <c r="I5">
-        <v>0.8706163379113565</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="J5">
-        <v>0.8706163379113564</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.275702333333334</v>
+        <v>7.616606666666667</v>
       </c>
       <c r="N5">
-        <v>18.827107</v>
+        <v>22.84982</v>
       </c>
       <c r="O5">
-        <v>0.2560867246427467</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="P5">
-        <v>0.2560867246427466</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="Q5">
-        <v>1954.349875462556</v>
+        <v>2371.92803288056</v>
       </c>
       <c r="R5">
-        <v>17589.148879163</v>
+        <v>21347.35229592504</v>
       </c>
       <c r="S5">
-        <v>0.2229532863961821</v>
+        <v>0.2618232983804802</v>
       </c>
       <c r="T5">
-        <v>0.222953286396182</v>
+        <v>0.2618232983804803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>934.2459719999999</v>
       </c>
       <c r="I6">
-        <v>0.8706163379113565</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="J6">
-        <v>0.8706163379113564</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.774899</v>
       </c>
       <c r="O6">
-        <v>0.418600854933333</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="P6">
-        <v>0.4186008549333329</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="Q6">
         <v>3194.591714384092</v>
@@ -818,10 +818,10 @@
         <v>28751.32542945683</v>
       </c>
       <c r="S6">
-        <v>0.3644407433686214</v>
+        <v>0.3526323429902793</v>
       </c>
       <c r="T6">
-        <v>0.3644407433686213</v>
+        <v>0.3526323429902793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>934.2459719999999</v>
       </c>
       <c r="I7">
-        <v>0.8706163379113565</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="J7">
-        <v>0.8706163379113564</v>
+        <v>0.8885011423915244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>23.916475</v>
       </c>
       <c r="O7">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828338</v>
       </c>
       <c r="P7">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828339</v>
       </c>
       <c r="Q7">
         <v>2482.6522703543</v>
@@ -880,10 +880,10 @@
         <v>22343.8704331887</v>
       </c>
       <c r="S7">
-        <v>0.2832223081465531</v>
+        <v>0.2740455010207649</v>
       </c>
       <c r="T7">
-        <v>0.283222308146553</v>
+        <v>0.274045501020765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.40240933333333</v>
+        <v>32.40240933333334</v>
       </c>
       <c r="H8">
-        <v>97.207228</v>
+        <v>97.20722800000001</v>
       </c>
       <c r="I8">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="J8">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.275702333333334</v>
+        <v>7.616606666666667</v>
       </c>
       <c r="N8">
-        <v>18.827107</v>
+        <v>22.84982</v>
       </c>
       <c r="O8">
-        <v>0.2560867246427467</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="P8">
-        <v>0.2560867246427466</v>
+        <v>0.2946797543509583</v>
       </c>
       <c r="Q8">
-        <v>203.3478758588218</v>
+        <v>246.7964069443289</v>
       </c>
       <c r="R8">
-        <v>1830.130882729396</v>
+        <v>2221.16766249896</v>
       </c>
       <c r="S8">
-        <v>0.02319803520015922</v>
+        <v>0.02724241562090821</v>
       </c>
       <c r="T8">
-        <v>0.02319803520015921</v>
+        <v>0.02724241562090822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.40240933333333</v>
+        <v>32.40240933333334</v>
       </c>
       <c r="H9">
-        <v>97.207228</v>
+        <v>97.20722800000001</v>
       </c>
       <c r="I9">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="J9">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>30.774899</v>
       </c>
       <c r="O9">
-        <v>0.418600854933333</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="P9">
-        <v>0.4186008549333329</v>
+        <v>0.3968845127662079</v>
       </c>
       <c r="Q9">
-        <v>332.3936248633302</v>
+        <v>332.3936248633303</v>
       </c>
       <c r="R9">
-        <v>2991.542623769972</v>
+        <v>2991.542623769973</v>
       </c>
       <c r="S9">
-        <v>0.03791964375001133</v>
+        <v>0.03669099315659697</v>
       </c>
       <c r="T9">
-        <v>0.03791964375001133</v>
+        <v>0.03669099315659697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.40240933333333</v>
+        <v>32.40240933333334</v>
       </c>
       <c r="H10">
-        <v>97.207228</v>
+        <v>97.20722800000001</v>
       </c>
       <c r="I10">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="J10">
-        <v>0.09058663713443794</v>
+        <v>0.09244753064529498</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>23.916475</v>
       </c>
       <c r="O10">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828338</v>
       </c>
       <c r="P10">
-        <v>0.3253124204239203</v>
+        <v>0.3084357328828339</v>
       </c>
       <c r="Q10">
-        <v>258.3171375868111</v>
+        <v>258.3171375868112</v>
       </c>
       <c r="R10">
         <v>2324.8542382813</v>
       </c>
       <c r="S10">
-        <v>0.02946895818426739</v>
+        <v>0.0285141218677898</v>
       </c>
       <c r="T10">
-        <v>0.02946895818426739</v>
+        <v>0.0285141218677898</v>
       </c>
     </row>
   </sheetData>
